--- a/biology/Botanique/Hypoxis/Hypoxis.xlsx
+++ b/biology/Botanique/Hypoxis/Hypoxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoxis est un genre de plantes de la famille des Hypoxidaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (25 septembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 septembre 2017) :
 Hypoxis abyssinica Hochst.
 Hypoxis acuminata Baker
 Hypoxis angustifolia Lam.
@@ -630,7 +646,7 @@
 Hypoxis villosa L.f.
 Hypoxis wrightii (Baker) Brackett
 Hypoxis zeyheri Baker
-Selon GRIN            (25 septembre 2017)[3] :
+Selon GRIN            (25 septembre 2017) :
 Hypoxis decumbens L.
 Hypoxis hemerocallidea Fisch. &amp; C. A. Mey.
 Hypoxis hirsuta (L.) Coville
@@ -639,7 +655,7 @@
 Hypoxis rigidula Baker
 Hypoxis stellipilis Ker Gawl.
 Hypoxis villosa L. f.
-Selon ITIS      (25 septembre 2017)[4] :
+Selon ITIS      (25 septembre 2017) :
 Hypoxis curtissii Rose
 Hypoxis hirsuta (L.) Coville
 Hypoxis juncea Sm.
@@ -648,7 +664,7 @@
 Hypoxis rigida Chapm.
 Hypoxis sessilis L.
 Hypoxis wrightii (Baker) Brackett
-Selon NCBI  (25 septembre 2017)[5] :
+Selon NCBI  (25 septembre 2017) :
 Hypoxis angustifolia
 Hypoxis aurea
 Hypoxis curtissii
@@ -667,7 +683,7 @@
 Hypoxis villosa
 Hypoxis wrightii
 cf. Hypoxis sp. OM548
-Selon The Plant List            (25 septembre 2017)[6] :
+Selon The Plant List            (25 septembre 2017) :
 Hypoxis abyssinica Hochst.
 Hypoxis acuminata Baker
 Hypoxis angustifolia Lam.
@@ -761,7 +777,7 @@
 Hypoxis wrightii (Baker) Brackett
 Hypoxis zeyheri Baker
 Hypoxis zululandensis S. E. Wood
-Selon Tropicos                                           (25 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hypoxis abyssinica Hochst.
 Hypoxis acida (Nel) Geerinck
 Hypoxis aculeata Nel
